--- a/.net main.xlsx
+++ b/.net main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3440C1-CA62-4730-BED8-D9C91EB875CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FFB727-8D84-4439-B6D8-C0C6E0C36E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="2" activeTab="5" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="3" activeTab="5" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>DegreeId</t>
   </si>
@@ -288,6 +288,66 @@
   </si>
   <si>
     <t>Sp21</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Spring 2021</t>
+  </si>
+  <si>
+    <t>Summer 2021</t>
+  </si>
+  <si>
+    <t>Fall 2021</t>
+  </si>
+  <si>
+    <t>Spring 2022</t>
+  </si>
+  <si>
+    <t>Summer2022</t>
+  </si>
+  <si>
+    <t>Fall 2022</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer2023</t>
+  </si>
+  <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring2024</t>
+  </si>
+  <si>
+    <t>Su21</t>
+  </si>
+  <si>
+    <t>Fa21</t>
+  </si>
+  <si>
+    <t>Sp22</t>
+  </si>
+  <si>
+    <t>Su22</t>
+  </si>
+  <si>
+    <t>Fa22</t>
+  </si>
+  <si>
+    <t>Sp23</t>
+  </si>
+  <si>
+    <t>Su23</t>
+  </si>
+  <si>
+    <t>Fa23</t>
+  </si>
+  <si>
+    <t>Sp24</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2493,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2494,22 +2554,106 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2518,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF7E25-1075-4403-8BC8-9554049F9FD7}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2720,6 +2864,196 @@
         <v>64</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2730,7 +3064,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/.net main.xlsx
+++ b/.net main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FFB727-8D84-4439-B6D8-C0C6E0C36E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E1247-9374-4526-89CA-B5D004812199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="3" activeTab="5" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="3" activeTab="4" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t>DegreeId</t>
   </si>
@@ -1523,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B57DC2-3DB4-4140-AC6D-1D4619B7C995}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A28"/>
     </sheetView>
   </sheetViews>
@@ -2492,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5E9439-6917-4E45-9AB0-E32A650408D5}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2526,8 +2526,8 @@
       <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>48</v>
+      <c r="C2" s="7">
+        <v>531495</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>24</v>
@@ -2543,8 +2543,8 @@
       <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
+      <c r="C3" s="7">
+        <v>531502</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>52</v>
@@ -2560,8 +2560,8 @@
       <c r="B4" s="7">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
+      <c r="C4">
+        <v>531369</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2577,8 +2577,8 @@
       <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
+      <c r="C5">
+        <v>525956</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2594,8 +2594,8 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>48</v>
+      <c r="C6" s="7">
+        <v>531495</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -2611,8 +2611,8 @@
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
+      <c r="C7" s="7">
+        <v>531502</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2628,8 +2628,8 @@
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>67</v>
+      <c r="C8">
+        <v>531369</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -2645,8 +2645,8 @@
       <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
+      <c r="C9">
+        <v>525956</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2664,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF7E25-1075-4403-8BC8-9554049F9FD7}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2698,8 +2698,8 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
+      <c r="B2">
+        <v>531495</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -2715,8 +2715,8 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
+      <c r="B3">
+        <v>531495</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -2732,8 +2732,8 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
+      <c r="B4">
+        <v>531495</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -2749,8 +2749,8 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>48</v>
+      <c r="B5">
+        <v>531495</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
@@ -2766,8 +2766,8 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>48</v>
+      <c r="B6">
+        <v>531495</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -2783,8 +2783,8 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
+      <c r="B7">
+        <v>531502</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -2800,8 +2800,8 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
+      <c r="B8">
+        <v>531502</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -2817,8 +2817,8 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
+      <c r="B9">
+        <v>531502</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
@@ -2834,8 +2834,8 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>49</v>
+      <c r="B10">
+        <v>531502</v>
       </c>
       <c r="C10" s="6">
         <v>4</v>
@@ -2851,8 +2851,8 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>49</v>
+      <c r="B11">
+        <v>531502</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
@@ -2868,8 +2868,8 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>67</v>
+      <c r="B12">
+        <v>531369</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -2885,8 +2885,8 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>67</v>
+      <c r="B13">
+        <v>531369</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -2902,8 +2902,8 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>67</v>
+      <c r="B14">
+        <v>531369</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
@@ -2919,8 +2919,8 @@
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>67</v>
+      <c r="B15">
+        <v>531369</v>
       </c>
       <c r="C15" s="6">
         <v>4</v>
@@ -2936,8 +2936,8 @@
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>67</v>
+      <c r="B16">
+        <v>531369</v>
       </c>
       <c r="C16" s="6">
         <v>5</v>
@@ -2953,8 +2953,8 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>68</v>
+      <c r="B17">
+        <v>525956</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -2970,8 +2970,8 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>68</v>
+      <c r="B18">
+        <v>525956</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
@@ -2987,8 +2987,8 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>68</v>
+      <c r="B19">
+        <v>525956</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
@@ -3004,8 +3004,8 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>68</v>
+      <c r="B20">
+        <v>525956</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
@@ -3021,8 +3021,8 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>68</v>
+      <c r="B21">
+        <v>525956</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
@@ -3064,11 +3064,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="B9" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>

--- a/.net main.xlsx
+++ b/.net main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Pictures\Team8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2E1247-9374-4526-89CA-B5D004812199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6474ED3-447D-4324-B8A9-D894F8E8C9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="3" activeTab="4" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="3" activeTab="6" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>DegreeId</t>
   </si>
@@ -182,12 +182,6 @@
     <t>DegreePlanName</t>
   </si>
   <si>
-    <t>S531495</t>
-  </si>
-  <si>
-    <t>S531502</t>
-  </si>
-  <si>
     <t xml:space="preserve">No summer </t>
   </si>
   <si>
@@ -237,12 +231,6 @@
   </si>
   <si>
     <t>Last Name</t>
-  </si>
-  <si>
-    <t>S531369</t>
-  </si>
-  <si>
-    <t>S525956</t>
   </si>
   <si>
     <t>Midhun</t>
@@ -2492,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5E9439-6917-4E45-9AB0-E32A650408D5}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2533,7 +2521,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2547,10 +2535,10 @@
         <v>531502</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2564,10 +2552,10 @@
         <v>531369</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2581,10 +2569,10 @@
         <v>525956</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2598,10 +2586,10 @@
         <v>531495</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2618,7 +2606,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2635,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2652,7 +2640,7 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2679,19 +2667,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2705,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2722,10 +2710,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2739,10 +2727,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2756,10 +2744,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2773,10 +2761,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2790,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2807,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2824,10 +2812,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2841,10 +2829,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2858,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2875,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2892,10 +2880,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2909,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2926,10 +2914,10 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2943,10 +2931,10 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2960,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2977,10 +2965,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2994,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3011,10 +2999,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3028,10 +3016,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3063,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50651B46-291E-4C08-8B51-AB8837DF96DB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3079,56 +3067,56 @@
         <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>48</v>
+      <c r="A2">
+        <v>531495</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>49</v>
+      <c r="A3">
+        <v>531502</v>
       </c>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>531369</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>525956</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/.net main.xlsx
+++ b/.net main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Pictures\Team8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6474ED3-447D-4324-B8A9-D894F8E8C9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B91F224-4B1A-467F-9381-F90000F9B869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="3" activeTab="6" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="2" activeTab="5" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
   <si>
     <t>DegreeId</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Spring 2022</t>
   </si>
   <si>
-    <t>Summer2022</t>
-  </si>
-  <si>
     <t>Fall 2022</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
   </si>
   <si>
     <t>Sp22</t>
-  </si>
-  <si>
-    <t>Su22</t>
   </si>
   <si>
     <t>Fa22</t>
@@ -789,10 +783,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
@@ -2481,7 +2479,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2652,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF7E25-1075-4403-8BC8-9554049F9FD7}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2857,16 +2855,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>531369</v>
+        <v>531502</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2877,13 +2875,13 @@
         <v>531369</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2894,13 +2892,13 @@
         <v>531369</v>
       </c>
       <c r="C14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2911,13 +2909,13 @@
         <v>531369</v>
       </c>
       <c r="C15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2928,13 +2926,13 @@
         <v>531369</v>
       </c>
       <c r="C16" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2948,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2965,10 +2963,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2982,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2999,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3016,10 +3014,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3051,7 +3049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50651B46-291E-4C08-8B51-AB8837DF96DB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/.net main.xlsx
+++ b/.net main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Pictures\Team8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B91F224-4B1A-467F-9381-F90000F9B869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BAC61D-C090-4139-B3EA-1F73628EC9A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="2" activeTab="5" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>DegreeId</t>
   </si>
@@ -330,6 +330,21 @@
   </si>
   <si>
     <t>Sp24</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>new Degree{</t>
+  </si>
+  <si>
+    <t>},</t>
   </si>
 </sst>
 </file>
@@ -386,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -395,6 +410,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,15 +727,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE356B96-A30F-42CD-ACEA-546DA74B1803}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,8 +751,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -739,8 +771,18 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>D2&amp;$A$1&amp;"="&amp;A2&amp;E2</f>
+        <v>new Degree{DegreeId=1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -750,8 +792,14 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -761,8 +809,14 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -771,6 +825,12 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2650,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF7E25-1075-4403-8BC8-9554049F9FD7}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/.net main.xlsx
+++ b/.net main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531495\Pictures\Team8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531502\Documents\44663\Team8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BAC61D-C090-4139-B3EA-1F73628EC9A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAD3770-0ACF-4D9B-A4AD-4770B6E24370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" firstSheet="2" activeTab="6" xr2:uid="{2B808FE4-DBEC-4002-8F91-2211F4B4860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -227,12 +227,6 @@
     <t>Spring2021</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Midhun</t>
   </si>
   <si>
@@ -345,6 +339,12 @@
   </si>
   <si>
     <t>},</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE356B96-A30F-42CD-ACEA-546DA74B1803}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
@@ -752,13 +752,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -772,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="9" t="str">
         <f>D2&amp;$A$1&amp;"="&amp;A2&amp;E2</f>
@@ -793,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -810,10 +810,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -827,10 +827,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -843,12 +843,13 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2627,7 +2628,7 @@
         <v>525956</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>49</v>
@@ -2751,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>56</v>
@@ -2768,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>57</v>
@@ -2785,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>58</v>
@@ -2802,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>59</v>
@@ -2819,7 +2820,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>60</v>
@@ -2836,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>58</v>
@@ -2853,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>59</v>
@@ -2870,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>60</v>
@@ -2887,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2904,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>62</v>
@@ -2921,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2938,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2955,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2972,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2989,10 +2990,10 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3006,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3023,10 +3024,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3040,10 +3041,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3057,10 +3058,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3074,10 +3075,10 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3109,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50651B46-291E-4C08-8B51-AB8837DF96DB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3125,10 +3126,10 @@
         <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3138,10 +3139,10 @@
         <v>531495</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3149,10 +3150,10 @@
         <v>531502</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3160,10 +3161,10 @@
         <v>531369</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3171,10 +3172,10 @@
         <v>525956</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
